--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -29,19 +29,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\收集箱\图片\三体\timg.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\收集箱\图片\三体\红岸基地.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\收集箱\图片\三体\三体.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\收集箱\图片\三体\三体2.png</t>
+    <t>material\timg.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material\红岸基地.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material\三体.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material\三体2.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
